--- a/配置表/BoomFish003.xlsx
+++ b/配置表/BoomFish003.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishKuaishou\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishKSGit\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93500BF-2964-4396-9C73-E145DE1587EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8243EC52-2074-4FC8-9095-4A8757EB248E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -109,45 +109,6 @@
   </si>
   <si>
     <t>Fish/fish03/1032501</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1032601</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1032701</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1032801</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1032901</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1033001</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1033101</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1033201</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1033301</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1033401</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1033501</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1033601</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1033701</t>
-  </si>
-  <si>
-    <t>Fish/fish03/1033801</t>
   </si>
   <si>
     <t>玩家</t>
@@ -478,117 +439,39 @@
     <t>Fish/zawu2000124</t>
   </si>
   <si>
-    <t>米诺鱼</t>
-  </si>
-  <si>
-    <t>金鱼</t>
-  </si>
-  <si>
     <t>黑角鮟鱇</t>
   </si>
   <si>
-    <t>灯笼鱼</t>
-  </si>
-  <si>
-    <t>小丑鱼</t>
-  </si>
-  <si>
-    <t>鳑鲏</t>
-  </si>
-  <si>
-    <t>胡瓜鱼</t>
-  </si>
-  <si>
-    <t>河豚</t>
-  </si>
-  <si>
-    <t>恩古尼</t>
-  </si>
-  <si>
     <t>长须鮟鱇鱼</t>
   </si>
   <si>
-    <t>桂鱼</t>
-  </si>
-  <si>
     <t>仙海鲂</t>
   </si>
   <si>
-    <t>牛蛙</t>
-  </si>
-  <si>
     <t>狼牙鱼</t>
   </si>
   <si>
     <t>狗鲨</t>
   </si>
   <si>
-    <t>红大麻花鱼</t>
-  </si>
-  <si>
-    <t>鳞白甲鱼</t>
-  </si>
-  <si>
-    <t>狮子鱼</t>
-  </si>
-  <si>
-    <t>奥木尔鱼</t>
-  </si>
-  <si>
-    <t>三文鱼</t>
-  </si>
-  <si>
-    <t>海鳟鱼</t>
-  </si>
-  <si>
     <t>帆鳍鲂</t>
   </si>
   <si>
     <t>足球鱼</t>
   </si>
   <si>
-    <t>翻车鱼</t>
-  </si>
-  <si>
-    <t>高白鲑</t>
-  </si>
-  <si>
     <t>催眠鮟鱇鱼</t>
   </si>
   <si>
-    <t>金色龙鱼</t>
-  </si>
-  <si>
-    <t>鲱形白鲑</t>
-  </si>
-  <si>
     <t>粗鳍鱼</t>
   </si>
   <si>
     <t>帆蜥鱼</t>
   </si>
   <si>
-    <t>大海鲢</t>
-  </si>
-  <si>
-    <t>湄公河巨鲶</t>
-  </si>
-  <si>
     <t>深海鮟鱇鱼</t>
   </si>
   <si>
-    <t>拿破仑鱼</t>
-  </si>
-  <si>
-    <t>贝加尔白鲑</t>
-  </si>
-  <si>
-    <t>帝王鲑</t>
-  </si>
-  <si>
-    <t>蓝鳍金枪鱼</t>
-  </si>
-  <si>
     <t>剑吻鲨</t>
   </si>
   <si>
@@ -656,6 +539,45 @@
   </si>
   <si>
     <t>Fish/fish03/1032301</t>
+  </si>
+  <si>
+    <t>帆鳍鱼</t>
+  </si>
+  <si>
+    <t>枯叶鱼</t>
+  </si>
+  <si>
+    <t>水滴鱼</t>
+  </si>
+  <si>
+    <t>黑尾鮟鱇鱼</t>
+  </si>
+  <si>
+    <t>银色洞鳍鲷</t>
+  </si>
+  <si>
+    <t>大菱鲆</t>
+  </si>
+  <si>
+    <t>管眼鱼</t>
+  </si>
+  <si>
+    <t>黑鬼鱼</t>
+  </si>
+  <si>
+    <t>帕库鱼</t>
+  </si>
+  <si>
+    <t>海魔鱼</t>
+  </si>
+  <si>
+    <t>突吻角鮟鱇</t>
+  </si>
+  <si>
+    <t>睡鲨</t>
+  </si>
+  <si>
+    <t>成年大白鲨</t>
   </si>
 </sst>
 </file>
@@ -1008,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H40"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1112,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>13180</v>
+        <v>25884</v>
       </c>
       <c r="G3" s="3">
         <v>7</v>
@@ -1153,22 +1075,22 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>12704</v>
+        <v>23979</v>
       </c>
       <c r="G4" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1194,22 +1116,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12228</v>
+        <v>22073</v>
       </c>
       <c r="G5" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1235,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D6">
         <v>21</v>
@@ -1244,13 +1166,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>11751</v>
+        <v>20168</v>
       </c>
       <c r="G6" s="3">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1276,22 +1198,22 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>11275</v>
+        <v>9369</v>
       </c>
       <c r="G7" s="3">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1317,22 +1239,22 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>10798</v>
+        <v>8893</v>
       </c>
       <c r="G8" s="3">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1358,22 +1280,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>10322</v>
+        <v>8416</v>
       </c>
       <c r="G9" s="3">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="H9" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1399,22 +1321,22 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9846</v>
+        <v>7940</v>
       </c>
       <c r="G10" s="3">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1440,22 +1362,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>9369</v>
+        <v>7464</v>
       </c>
       <c r="G11" s="3">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="H11" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1481,22 +1403,22 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D12">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>8893</v>
+        <v>13498</v>
       </c>
       <c r="G12" s="3">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="H12" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1522,22 +1444,22 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D13">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>8416</v>
+        <v>11592</v>
       </c>
       <c r="G13" s="3">
-        <v>134</v>
+        <v>560</v>
       </c>
       <c r="H13" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1563,22 +1485,22 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D14">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>7940</v>
+        <v>9687</v>
       </c>
       <c r="G14" s="3">
-        <v>192</v>
+        <v>760</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1604,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>7464</v>
+        <v>4129</v>
       </c>
       <c r="G15" s="3">
-        <v>250</v>
+        <v>880</v>
       </c>
       <c r="H15" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1645,22 +1567,22 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D16">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>6987</v>
+        <v>3652</v>
       </c>
       <c r="G16" s="3">
-        <v>384</v>
+        <v>960</v>
       </c>
       <c r="H16" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1686,22 +1608,22 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D17">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>6511</v>
+        <v>3176</v>
       </c>
       <c r="G17" s="3">
-        <v>576</v>
+        <v>1200</v>
       </c>
       <c r="H17" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1727,22 +1649,22 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D18">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>6034</v>
+        <v>2700</v>
       </c>
       <c r="G18" s="3">
-        <v>576</v>
+        <v>1920</v>
       </c>
       <c r="H18" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1768,22 +1690,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D19">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>5558</v>
+        <v>3070</v>
       </c>
       <c r="G19" s="3">
-        <v>768</v>
+        <v>2176</v>
       </c>
       <c r="H19" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1809,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D20">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>5082</v>
+        <v>2510</v>
       </c>
       <c r="G20" s="3">
-        <v>864</v>
+        <v>2816</v>
       </c>
       <c r="H20" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1850,22 +1772,22 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D21">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>4605</v>
+        <v>1950</v>
       </c>
       <c r="G21" s="3">
-        <v>960</v>
+        <v>3328</v>
       </c>
       <c r="H21" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1891,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D22">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>4129</v>
+        <v>765</v>
       </c>
       <c r="G22" s="3">
-        <v>1056</v>
+        <v>3840</v>
       </c>
       <c r="H22" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1932,22 +1854,22 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D23">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>3652</v>
+        <v>625</v>
       </c>
       <c r="G23" s="3">
-        <v>1152</v>
+        <v>4608</v>
       </c>
       <c r="H23" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1973,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D24">
-        <v>119</v>
+        <v>210</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>3176</v>
+        <v>391</v>
       </c>
       <c r="G24" s="3">
-        <v>1440</v>
+        <v>5248</v>
       </c>
       <c r="H24" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2014,22 +1936,22 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D25">
-        <v>131</v>
+        <v>541</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>2700</v>
+        <v>269</v>
       </c>
       <c r="G25" s="3">
-        <v>2304</v>
+        <v>8960</v>
       </c>
       <c r="H25" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2055,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D26">
-        <v>144</v>
+        <v>626</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>1605</v>
+        <v>99</v>
       </c>
       <c r="G26" s="3">
-        <v>2458</v>
+        <v>12800</v>
       </c>
       <c r="H26" t="s">
         <v>27</v>
@@ -2096,19 +2018,19 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D27">
-        <v>158</v>
+        <v>780</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>1465</v>
+        <v>80</v>
       </c>
       <c r="G27" s="3">
-        <v>2765</v>
+        <v>17280</v>
       </c>
       <c r="H27" t="s">
         <v>28</v>
@@ -2117,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2131,28 +2053,28 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>1032601</v>
+        <v>1000002</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>174</v>
+        <v>500</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>1325</v>
+        <v>50</v>
       </c>
       <c r="G28" s="3">
-        <v>3072</v>
+        <v>27732</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2172,31 +2094,31 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>1032701</v>
+        <v>1000003</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>1185</v>
+        <v>1</v>
       </c>
       <c r="G29" s="3">
-        <v>3686</v>
+        <v>23333</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2211,560 +2133,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>1032801</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30">
-        <v>210</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>1045</v>
-      </c>
-      <c r="G30" s="3">
-        <v>3686</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>1032901</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31">
-        <v>231</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>905</v>
-      </c>
-      <c r="G31" s="3">
-        <v>4301</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>1033001</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32">
-        <v>254</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>765</v>
-      </c>
-      <c r="G32" s="3">
-        <v>4608</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>1033101</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33">
-        <v>279</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>625</v>
-      </c>
-      <c r="G33" s="3">
-        <v>5530</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>1033201</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34">
-        <v>307</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>221</v>
-      </c>
-      <c r="G34" s="3">
-        <v>6144</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>1033301</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35">
-        <v>338</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>170</v>
-      </c>
-      <c r="G35" s="3">
-        <v>6451</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>1033401</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36">
-        <v>372</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>148</v>
-      </c>
-      <c r="G36" s="3">
-        <v>9216</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>1033501</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37">
-        <v>409</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>121</v>
-      </c>
-      <c r="G37" s="3">
-        <v>12288</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>1033601</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D38">
-        <v>450</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="F38">
-        <v>99</v>
-      </c>
-      <c r="G38" s="3">
-        <v>15360</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>1033701</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39">
-        <v>495</v>
-      </c>
-      <c r="E39">
-        <v>4</v>
-      </c>
-      <c r="F39">
-        <v>90</v>
-      </c>
-      <c r="G39" s="3">
-        <v>18432</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>1033801</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D40">
-        <v>545</v>
-      </c>
-      <c r="E40">
-        <v>4</v>
-      </c>
-      <c r="F40">
-        <v>70</v>
-      </c>
-      <c r="G40" s="3">
-        <v>23040</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>1000002</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41">
-        <v>350</v>
-      </c>
-      <c r="E41">
-        <v>4</v>
-      </c>
-      <c r="F41">
-        <v>50</v>
-      </c>
-      <c r="G41" s="3">
-        <v>27732</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>1000003</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42">
-        <v>15</v>
-      </c>
-      <c r="E42">
-        <v>4</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>23333</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="M64" s="1"/>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M51" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2785,7 +2174,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>1010101</v>
@@ -2793,39 +2182,39 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D1">
         <v>5</v>
@@ -2867,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -2878,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -2893,7 +2282,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -2904,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -2919,7 +2308,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -2930,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -2945,7 +2334,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -2956,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <v>25</v>
@@ -2971,7 +2360,7 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -2982,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2997,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -3008,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>21</v>
@@ -3023,7 +2412,7 @@
         <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -3034,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>17</v>
@@ -3049,7 +2438,7 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -3060,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <v>75</v>
@@ -3075,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -3086,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -3101,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -3112,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D11">
         <v>80</v>
@@ -3127,7 +2516,7 @@
         <v>666</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -3138,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D12">
         <v>52</v>
@@ -3153,7 +2542,7 @@
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -3164,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D13">
         <v>55</v>
@@ -3179,7 +2568,7 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -3190,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -3205,7 +2594,7 @@
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -3216,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -3231,7 +2620,7 @@
         <v>666</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -3242,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D16">
         <v>25</v>
@@ -3257,7 +2646,7 @@
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -3268,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D17">
         <v>75</v>
@@ -3283,7 +2672,7 @@
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -3294,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3309,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -3320,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -3335,7 +2724,7 @@
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -3346,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D20">
         <v>55</v>
@@ -3361,7 +2750,7 @@
         <v>666</v>
       </c>
       <c r="H20" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -3372,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D21">
         <v>25</v>
@@ -3387,7 +2776,7 @@
         <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -3398,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -3413,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -3424,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D23">
         <v>15</v>
@@ -3439,10 +2828,10 @@
         <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -3453,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D24">
         <v>35</v>
@@ -3468,7 +2857,7 @@
         <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/配置表/BoomFish003.xlsx
+++ b/配置表/BoomFish003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishKSGit\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8243EC52-2074-4FC8-9095-4A8757EB248E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DD6CC6-E668-4B6B-A306-09EBBA811875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoomFish003" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -115,12 +115,6 @@
   </si>
   <si>
     <t>Fish/fish1000002</t>
-  </si>
-  <si>
-    <t>海洋的馈赠</t>
-  </si>
-  <si>
-    <t>Fish/fish1000003</t>
   </si>
   <si>
     <t>示例：</t>
@@ -930,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1034,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D3">
         <v>18</v>
@@ -1075,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -1090,7 +1084,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1116,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -1131,7 +1125,7 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1157,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D6">
         <v>21</v>
@@ -1172,7 +1166,7 @@
         <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1198,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D7">
         <v>31</v>
@@ -1213,7 +1207,7 @@
         <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1239,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -1254,7 +1248,7 @@
         <v>104</v>
       </c>
       <c r="H8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1280,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D9">
         <v>36</v>
@@ -1295,7 +1289,7 @@
         <v>112</v>
       </c>
       <c r="H9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1321,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D10">
         <v>43</v>
@@ -1336,7 +1330,7 @@
         <v>160</v>
       </c>
       <c r="H10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1362,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11">
         <v>56</v>
@@ -1377,7 +1371,7 @@
         <v>208</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1403,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D12">
         <v>61</v>
@@ -1418,7 +1412,7 @@
         <v>400</v>
       </c>
       <c r="H12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1444,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D13">
         <v>62</v>
@@ -1459,7 +1453,7 @@
         <v>560</v>
       </c>
       <c r="H13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1485,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D14">
         <v>75</v>
@@ -1500,7 +1494,7 @@
         <v>760</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1526,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D15">
         <v>82</v>
@@ -1541,7 +1535,7 @@
         <v>880</v>
       </c>
       <c r="H15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1567,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D16">
         <v>100</v>
@@ -1582,7 +1576,7 @@
         <v>960</v>
       </c>
       <c r="H16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1608,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D17">
         <v>100</v>
@@ -1623,7 +1617,7 @@
         <v>1200</v>
       </c>
       <c r="H17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1649,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D18">
         <v>104</v>
@@ -1664,7 +1658,7 @@
         <v>1920</v>
       </c>
       <c r="H18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1690,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19">
         <v>114</v>
@@ -1705,7 +1699,7 @@
         <v>2176</v>
       </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1731,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D20">
         <v>118</v>
@@ -1746,7 +1740,7 @@
         <v>2816</v>
       </c>
       <c r="H20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1772,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21">
         <v>151</v>
@@ -1787,7 +1781,7 @@
         <v>3328</v>
       </c>
       <c r="H21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1813,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D22">
         <v>174</v>
@@ -1828,7 +1822,7 @@
         <v>3840</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1854,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D23">
         <v>197</v>
@@ -1869,7 +1863,7 @@
         <v>4608</v>
       </c>
       <c r="H23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1895,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>210</v>
@@ -1904,13 +1898,13 @@
         <v>3</v>
       </c>
       <c r="F24">
-        <v>391</v>
+        <v>782</v>
       </c>
       <c r="G24" s="3">
         <v>5248</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1936,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D25">
         <v>541</v>
@@ -1945,13 +1939,13 @@
         <v>3</v>
       </c>
       <c r="F25">
-        <v>269</v>
+        <v>538</v>
       </c>
       <c r="G25" s="3">
         <v>8960</v>
       </c>
       <c r="H25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1977,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D26">
         <v>626</v>
@@ -1986,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="F26">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="G26" s="3">
         <v>12800</v>
@@ -2018,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D27">
         <v>780</v>
@@ -2027,7 +2021,7 @@
         <v>4</v>
       </c>
       <c r="F27">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G27" s="3">
         <v>17280</v>
@@ -2092,46 +2086,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>1000003</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29">
-        <v>15</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>23333</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
@@ -2141,19 +2097,16 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="M51" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2174,7 +2127,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>1010101</v>
@@ -2182,39 +2135,39 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2241,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1">
         <v>5</v>
@@ -2256,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -2267,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -2282,7 +2235,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -2293,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -2308,7 +2261,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -2319,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -2334,7 +2287,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -2345,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>25</v>
@@ -2360,7 +2313,7 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -2371,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2386,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -2397,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>21</v>
@@ -2412,7 +2365,7 @@
         <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -2423,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>17</v>
@@ -2438,7 +2391,7 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -2449,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>75</v>
@@ -2464,7 +2417,7 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -2475,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -2490,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -2501,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <v>80</v>
@@ -2516,7 +2469,7 @@
         <v>666</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -2527,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>52</v>
@@ -2542,7 +2495,7 @@
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -2553,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <v>55</v>
@@ -2568,7 +2521,7 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -2579,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -2594,7 +2547,7 @@
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -2605,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -2620,7 +2573,7 @@
         <v>666</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -2631,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16">
         <v>25</v>
@@ -2646,7 +2599,7 @@
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -2657,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17">
         <v>75</v>
@@ -2672,7 +2625,7 @@
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -2683,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2698,7 +2651,7 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -2709,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -2724,7 +2677,7 @@
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -2735,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D20">
         <v>55</v>
@@ -2750,7 +2703,7 @@
         <v>666</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -2761,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D21">
         <v>25</v>
@@ -2776,7 +2729,7 @@
         <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -2787,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -2802,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -2813,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D23">
         <v>15</v>
@@ -2828,10 +2781,10 @@
         <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -2842,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D24">
         <v>35</v>
@@ -2857,7 +2810,7 @@
         <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
